--- a/python_module/ShallowFeature/models_score.xlsx
+++ b/python_module/ShallowFeature/models_score.xlsx
@@ -428,16 +428,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1707317073170732</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="C2">
-        <v>0.1707317073170732</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="D2">
-        <v>0.2682926829268293</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="E2">
-        <v>0.2195121951219512</v>
+        <v>0.2439024390243902</v>
       </c>
       <c r="F2">
         <v>0.2682926829268293</v>
@@ -446,7 +446,7 @@
         <v>0.1707317073170732</v>
       </c>
       <c r="H2">
-        <v>0.2926829268292683</v>
+        <v>0.3414634146341464</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -454,16 +454,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.175</v>
+        <v>0.575</v>
       </c>
       <c r="C3">
-        <v>0.25</v>
+        <v>0.325</v>
       </c>
       <c r="D3">
         <v>0.45</v>
       </c>
       <c r="E3">
-        <v>0.375</v>
+        <v>0.325</v>
       </c>
       <c r="F3">
         <v>0.3</v>
@@ -472,7 +472,7 @@
         <v>0.2</v>
       </c>
       <c r="H3">
-        <v>0.35</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -480,25 +480,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1794871794871795</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C4">
-        <v>0.07692307692307693</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="D4">
-        <v>0.3846153846153846</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="E4">
-        <v>0.358974358974359</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F4">
-        <v>0.2564102564102564</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="G4">
         <v>0.1794871794871795</v>
       </c>
       <c r="H4">
-        <v>0.2564102564102564</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -506,16 +506,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1842105263157895</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C5">
-        <v>0.2105263157894737</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="D5">
         <v>0.3947368421052632</v>
       </c>
       <c r="E5">
-        <v>0.2368421052631579</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="F5">
         <v>0.2894736842105263</v>
@@ -524,7 +524,7 @@
         <v>0.1842105263157895</v>
       </c>
       <c r="H5">
-        <v>0.4210526315789473</v>
+        <v>0.4736842105263158</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -532,10 +532,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1842105263157895</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C6">
-        <v>0.3157894736842105</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="D6">
         <v>0.3947368421052632</v>
@@ -550,7 +550,7 @@
         <v>0.1842105263157895</v>
       </c>
       <c r="H6">
-        <v>0.4210526315789473</v>
+        <v>0.4473684210526316</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -558,16 +558,16 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>0.4594594594594595</v>
+      </c>
+      <c r="C7">
         <v>0.1891891891891892</v>
-      </c>
-      <c r="C7">
-        <v>0.4054054054054054</v>
       </c>
       <c r="D7">
         <v>0.4864864864864865</v>
       </c>
       <c r="E7">
-        <v>0.3783783783783784</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="F7">
         <v>0.2972972972972973</v>
@@ -584,7 +584,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1944444444444444</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C8">
         <v>0.2777777777777778</v>
@@ -593,7 +593,7 @@
         <v>0.3611111111111111</v>
       </c>
       <c r="E8">
-        <v>0.3055555555555556</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F8">
         <v>0.3055555555555556</v>
@@ -602,7 +602,7 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="H8">
-        <v>0.4722222222222222</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -610,16 +610,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1714285714285714</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C9">
-        <v>0.3142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D9">
         <v>0.3142857142857143</v>
       </c>
       <c r="E9">
-        <v>0.2857142857142857</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="F9">
         <v>0.2571428571428571</v>
@@ -636,16 +636,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1764705882352941</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="C10">
-        <v>0.1470588235294118</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="D10">
-        <v>0.3823529411764706</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="E10">
-        <v>0.2647058823529412</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="F10">
         <v>0.2352941176470588</v>
@@ -662,10 +662,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1875</v>
+        <v>0.5</v>
       </c>
       <c r="C11">
-        <v>0.21875</v>
+        <v>0.25</v>
       </c>
       <c r="D11">
         <v>0.53125</v>
@@ -680,7 +680,7 @@
         <v>0.15625</v>
       </c>
       <c r="H11">
-        <v>0.5</v>
+        <v>0.40625</v>
       </c>
     </row>
   </sheetData>
@@ -724,16 +724,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3333333333333333</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C2">
-        <v>0.4358974358974359</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="D2">
-        <v>0.4358974358974359</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="E2">
-        <v>0.5641025641025641</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="F2">
         <v>0.4358974358974359</v>
@@ -742,7 +742,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H2">
-        <v>0.4871794871794872</v>
+        <v>0.5384615384615384</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -750,16 +750,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3421052631578947</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C3">
-        <v>0.4473684210526316</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="D3">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="E3">
         <v>0.5</v>
-      </c>
-      <c r="E3">
-        <v>0.5263157894736842</v>
       </c>
       <c r="F3">
         <v>0.4736842105263158</v>
@@ -768,7 +768,7 @@
         <v>0.3421052631578947</v>
       </c>
       <c r="H3">
-        <v>0.5263157894736842</v>
+        <v>0.4473684210526316</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -776,16 +776,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3421052631578947</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C4">
-        <v>0.5</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="D4">
-        <v>0.3947368421052632</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="E4">
-        <v>0.3684210526315789</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="F4">
         <v>0.4473684210526316</v>
@@ -794,7 +794,7 @@
         <v>0.3421052631578947</v>
       </c>
       <c r="H4">
-        <v>0.5789473684210527</v>
+        <v>0.631578947368421</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -802,16 +802,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3421052631578947</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="C5">
-        <v>0.2894736842105263</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="D5">
         <v>0.3947368421052632</v>
       </c>
       <c r="E5">
-        <v>0.4473684210526316</v>
+        <v>0.5</v>
       </c>
       <c r="F5">
         <v>0.4736842105263158</v>
@@ -820,7 +820,7 @@
         <v>0.3421052631578947</v>
       </c>
       <c r="H5">
-        <v>0.5</v>
+        <v>0.4210526315789473</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -828,13 +828,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3513513513513514</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="C6">
-        <v>0.4864864864864865</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="D6">
-        <v>0.4594594594594595</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="E6">
         <v>0.3243243243243243</v>
@@ -854,10 +854,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3513513513513514</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C7">
-        <v>0.3783783783783784</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="D7">
         <v>0.7837837837837838</v>
@@ -872,7 +872,7 @@
         <v>0.3513513513513514</v>
       </c>
       <c r="H7">
-        <v>0.6756756756756757</v>
+        <v>0.5405405405405406</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -880,16 +880,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3513513513513514</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C8">
-        <v>0.2432432432432433</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="D8">
-        <v>0.7297297297297297</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="E8">
-        <v>0.5675675675675675</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="F8">
         <v>0.4864864864864865</v>
@@ -898,7 +898,7 @@
         <v>0.3513513513513514</v>
       </c>
       <c r="H8">
-        <v>0.5945945945945946</v>
+        <v>0.5675675675675675</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -906,16 +906,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3611111111111111</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C9">
-        <v>0.6111111111111112</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D9">
         <v>0.6388888888888888</v>
       </c>
       <c r="E9">
-        <v>0.5</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="F9">
         <v>0.4444444444444444</v>
@@ -924,7 +924,7 @@
         <v>0.3611111111111111</v>
       </c>
       <c r="H9">
-        <v>0.6666666666666666</v>
+        <v>0.6388888888888888</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -932,16 +932,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3611111111111111</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C10">
-        <v>0.4444444444444444</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D10">
-        <v>0.5555555555555556</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="E10">
-        <v>0.5277777777777778</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="F10">
         <v>0.4166666666666667</v>
@@ -950,7 +950,7 @@
         <v>0.3611111111111111</v>
       </c>
       <c r="H10">
-        <v>0.7222222222222222</v>
+        <v>0.6388888888888888</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -958,7 +958,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3529411764705883</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C11">
         <v>0.5</v>
@@ -967,7 +967,7 @@
         <v>0.5588235294117647</v>
       </c>
       <c r="E11">
-        <v>0.5294117647058824</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="F11">
         <v>0.4411764705882353</v>
@@ -976,7 +976,7 @@
         <v>0.3529411764705883</v>
       </c>
       <c r="H11">
-        <v>0.6176470588235294</v>
+        <v>0.5588235294117647</v>
       </c>
     </row>
   </sheetData>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5526315789473685</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C2">
-        <v>0.8157894736842105</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="D2">
         <v>0.6842105263157895</v>
@@ -1038,7 +1038,7 @@
         <v>0.5526315789473685</v>
       </c>
       <c r="H2">
-        <v>0.7631578947368421</v>
+        <v>0.7368421052631579</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1046,13 +1046,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5526315789473685</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C3">
-        <v>0.6578947368421053</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="D3">
-        <v>0.6578947368421053</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="E3">
         <v>0.7105263157894737</v>
@@ -1064,7 +1064,7 @@
         <v>0.5526315789473685</v>
       </c>
       <c r="H3">
-        <v>0.6052631578947368</v>
+        <v>0.5789473684210527</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1072,13 +1072,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5526315789473685</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C4">
-        <v>0.8157894736842105</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="D4">
-        <v>0.7894736842105263</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="E4">
         <v>0.7631578947368421</v>
@@ -1090,7 +1090,7 @@
         <v>0.5526315789473685</v>
       </c>
       <c r="H4">
-        <v>0.7631578947368421</v>
+        <v>0.7368421052631579</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1098,13 +1098,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5675675675675675</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C5">
         <v>0.6756756756756757</v>
       </c>
       <c r="D5">
-        <v>0.7837837837837838</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="E5">
         <v>0.7027027027027027</v>
@@ -1116,7 +1116,7 @@
         <v>0.5675675675675675</v>
       </c>
       <c r="H5">
-        <v>0.7027027027027027</v>
+        <v>0.6756756756756757</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1124,7 +1124,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5675675675675675</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="C6">
         <v>0.7837837837837838</v>
@@ -1142,7 +1142,7 @@
         <v>0.5675675675675675</v>
       </c>
       <c r="H6">
-        <v>0.7567567567567568</v>
+        <v>0.8378378378378378</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1150,10 +1150,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5675675675675675</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C7">
-        <v>0.7567567567567568</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="D7">
         <v>0.918918918918919</v>
@@ -1168,7 +1168,7 @@
         <v>0.5675675675675675</v>
       </c>
       <c r="H7">
-        <v>0.7567567567567568</v>
+        <v>0.7297297297297297</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1176,10 +1176,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5675675675675675</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="C8">
-        <v>0.3243243243243243</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="D8">
         <v>0.8108108108108109</v>
@@ -1194,7 +1194,7 @@
         <v>0.5675675675675675</v>
       </c>
       <c r="H8">
-        <v>0.8108108108108109</v>
+        <v>0.7297297297297297</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1202,10 +1202,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5675675675675675</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="C9">
-        <v>0.7837837837837838</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="D9">
         <v>0.9459459459459459</v>
@@ -1220,7 +1220,7 @@
         <v>0.5675675675675675</v>
       </c>
       <c r="H9">
-        <v>0.8648648648648649</v>
+        <v>0.8918918918918919</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1228,16 +1228,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5833333333333334</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C10">
+        <v>0.4722222222222222</v>
+      </c>
+      <c r="D10">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="E10">
         <v>0.8055555555555556</v>
-      </c>
-      <c r="D10">
-        <v>0.6944444444444444</v>
-      </c>
-      <c r="E10">
-        <v>0.7777777777777778</v>
       </c>
       <c r="F10">
         <v>0.7222222222222222</v>
@@ -1254,10 +1254,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5714285714285714</v>
+        <v>0.8</v>
       </c>
       <c r="C11">
-        <v>0.8285714285714286</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="D11">
         <v>0.7428571428571429</v>
@@ -1272,7 +1272,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="H11">
-        <v>0.8571428571428571</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/python_module/ShallowFeature/models_score.xlsx
+++ b/python_module/ShallowFeature/models_score.xlsx
@@ -18,10 +18,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
   <si>
-    <t>SVC</t>
+    <t>LogisticRegression</t>
   </si>
   <si>
-    <t>LinearSVC</t>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>SVC</t>
   </si>
   <si>
     <t>GaussianNB</t>
@@ -30,10 +33,7 @@
     <t>MultinomialNB</t>
   </si>
   <si>
-    <t>ComplementNB</t>
-  </si>
-  <si>
-    <t>BernoulliNB</t>
+    <t>RandomForest</t>
   </si>
   <si>
     <t>DecisionTreeClassifier</t>
@@ -394,44 +394,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>0.3658536585365854</v>
       </c>
       <c r="B2">
+        <v>0.3414634146341464</v>
+      </c>
+      <c r="C2">
         <v>0.2926829268292683</v>
-      </c>
-      <c r="C2">
-        <v>0.1463414634146341</v>
       </c>
       <c r="D2">
         <v>0.2926829268292683</v>
@@ -440,24 +440,21 @@
         <v>0.2439024390243902</v>
       </c>
       <c r="F2">
-        <v>0.2682926829268293</v>
+        <v>0.3414634146341464</v>
       </c>
       <c r="G2">
-        <v>0.1707317073170732</v>
-      </c>
-      <c r="H2">
-        <v>0.3414634146341464</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
+        <v>0.3658536585365854</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>0.45</v>
       </c>
       <c r="B3">
+        <v>0.525</v>
+      </c>
+      <c r="C3">
         <v>0.575</v>
-      </c>
-      <c r="C3">
-        <v>0.325</v>
       </c>
       <c r="D3">
         <v>0.45</v>
@@ -466,24 +463,21 @@
         <v>0.325</v>
       </c>
       <c r="F3">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.2</v>
-      </c>
-      <c r="H3">
-        <v>0.325</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>0.358974358974359</v>
       </c>
       <c r="B4">
+        <v>0.358974358974359</v>
+      </c>
+      <c r="C4">
         <v>0.2564102564102564</v>
-      </c>
-      <c r="C4">
-        <v>0.1025641025641026</v>
       </c>
       <c r="D4">
         <v>0.358974358974359</v>
@@ -492,24 +486,21 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="F4">
-        <v>0.282051282051282</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="G4">
-        <v>0.1794871794871795</v>
-      </c>
-      <c r="H4">
-        <v>0.3076923076923077</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
+        <v>0.2564102564102564</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>0.3947368421052632</v>
       </c>
       <c r="B5">
         <v>0.3684210526315789</v>
       </c>
       <c r="C5">
-        <v>0.07894736842105263</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="D5">
         <v>0.3947368421052632</v>
@@ -518,24 +509,21 @@
         <v>0.3157894736842105</v>
       </c>
       <c r="F5">
-        <v>0.2894736842105263</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="G5">
-        <v>0.1842105263157895</v>
-      </c>
-      <c r="H5">
-        <v>0.4736842105263158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>0.3684210526315789</v>
       </c>
       <c r="B6">
+        <v>0.4473684210526316</v>
+      </c>
+      <c r="C6">
         <v>0.5263157894736842</v>
-      </c>
-      <c r="C6">
-        <v>0.3684210526315789</v>
       </c>
       <c r="D6">
         <v>0.3947368421052632</v>
@@ -544,24 +532,21 @@
         <v>0.2894736842105263</v>
       </c>
       <c r="F6">
-        <v>0.2631578947368421</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="G6">
-        <v>0.1842105263157895</v>
-      </c>
-      <c r="H6">
-        <v>0.4473684210526316</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
+        <v>0.5526315789473685</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>0.4864864864864865</v>
       </c>
       <c r="B7">
+        <v>0.5675675675675675</v>
+      </c>
+      <c r="C7">
         <v>0.4594594594594595</v>
-      </c>
-      <c r="C7">
-        <v>0.1891891891891892</v>
       </c>
       <c r="D7">
         <v>0.4864864864864865</v>
@@ -570,24 +555,21 @@
         <v>0.4324324324324325</v>
       </c>
       <c r="F7">
-        <v>0.2972972972972973</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="G7">
-        <v>0.2432432432432433</v>
-      </c>
-      <c r="H7">
-        <v>0.4594594594594595</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
+        <v>0.5135135135135135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>0.4444444444444444</v>
       </c>
       <c r="B8">
+        <v>0.4722222222222222</v>
+      </c>
+      <c r="C8">
         <v>0.4444444444444444</v>
-      </c>
-      <c r="C8">
-        <v>0.2777777777777778</v>
       </c>
       <c r="D8">
         <v>0.3611111111111111</v>
@@ -596,24 +578,21 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="F8">
-        <v>0.3055555555555556</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="G8">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="H8">
-        <v>0.3888888888888889</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
+        <v>0.4444444444444444</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>0.4</v>
       </c>
       <c r="B9">
+        <v>0.4</v>
+      </c>
+      <c r="C9">
         <v>0.4857142857142857</v>
-      </c>
-      <c r="C9">
-        <v>0.2857142857142857</v>
       </c>
       <c r="D9">
         <v>0.3142857142857143</v>
@@ -622,24 +601,21 @@
         <v>0.3428571428571429</v>
       </c>
       <c r="F9">
-        <v>0.2571428571428571</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="G9">
-        <v>0.2571428571428571</v>
-      </c>
-      <c r="H9">
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>0.3235294117647059</v>
       </c>
       <c r="B10">
+        <v>0.3235294117647059</v>
+      </c>
+      <c r="C10">
         <v>0.3823529411764706</v>
-      </c>
-      <c r="C10">
-        <v>0.2058823529411765</v>
       </c>
       <c r="D10">
         <v>0.3529411764705883</v>
@@ -648,24 +624,21 @@
         <v>0.2941176470588235</v>
       </c>
       <c r="F10">
-        <v>0.2352941176470588</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="G10">
-        <v>0.1764705882352941</v>
-      </c>
-      <c r="H10">
         <v>0.3529411764705883</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>0.375</v>
       </c>
       <c r="B11">
+        <v>0.5625</v>
+      </c>
+      <c r="C11">
         <v>0.5</v>
-      </c>
-      <c r="C11">
-        <v>0.25</v>
       </c>
       <c r="D11">
         <v>0.53125</v>
@@ -674,13 +647,33 @@
         <v>0.25</v>
       </c>
       <c r="F11">
-        <v>0.28125</v>
+        <v>0.5625</v>
       </c>
       <c r="G11">
-        <v>0.15625</v>
-      </c>
-      <c r="H11">
-        <v>0.40625</v>
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>0.3967446254943423</v>
+      </c>
+      <c r="B12">
+        <v>0.4367046448847212</v>
+      </c>
+      <c r="C12">
+        <v>0.4290801156139448</v>
+      </c>
+      <c r="D12">
+        <v>0.3937205458368054</v>
+      </c>
+      <c r="E12">
+        <v>0.3160239485934192</v>
+      </c>
+      <c r="F12">
+        <v>0.4554930652753088</v>
+      </c>
+      <c r="G12">
+        <v>0.4254544628322757</v>
       </c>
     </row>
   </sheetData>
@@ -690,44 +683,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>0.5128205128205128</v>
       </c>
       <c r="B2">
         <v>0.4615384615384616</v>
       </c>
       <c r="C2">
-        <v>0.282051282051282</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D2">
         <v>0.4102564102564102</v>
@@ -736,24 +729,21 @@
         <v>0.5897435897435898</v>
       </c>
       <c r="F2">
-        <v>0.4358974358974359</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="G2">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H2">
-        <v>0.5384615384615384</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
+        <v>0.5128205128205128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>0.5</v>
       </c>
       <c r="B3">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="C3">
         <v>0.4736842105263158</v>
-      </c>
-      <c r="C3">
-        <v>0.4210526315789473</v>
       </c>
       <c r="D3">
         <v>0.4736842105263158</v>
@@ -762,24 +752,21 @@
         <v>0.5</v>
       </c>
       <c r="F3">
+        <v>0.5789473684210527</v>
+      </c>
+      <c r="G3">
+        <v>0.4473684210526316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>0.5526315789473685</v>
+      </c>
+      <c r="B4">
+        <v>0.5526315789473685</v>
+      </c>
+      <c r="C4">
         <v>0.4736842105263158</v>
-      </c>
-      <c r="G3">
-        <v>0.3421052631578947</v>
-      </c>
-      <c r="H3">
-        <v>0.4473684210526316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.4736842105263158</v>
-      </c>
-      <c r="C4">
-        <v>0.5526315789473685</v>
       </c>
       <c r="D4">
         <v>0.4210526315789473</v>
@@ -788,24 +775,21 @@
         <v>0.4210526315789473</v>
       </c>
       <c r="F4">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="G4">
+        <v>0.5263157894736842</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
         <v>0.4473684210526316</v>
       </c>
-      <c r="G4">
-        <v>0.3421052631578947</v>
-      </c>
-      <c r="H4">
-        <v>0.631578947368421</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
       <c r="B5">
+        <v>0.5526315789473685</v>
+      </c>
+      <c r="C5">
         <v>0.4473684210526316</v>
-      </c>
-      <c r="C5">
-        <v>0.3684210526315789</v>
       </c>
       <c r="D5">
         <v>0.3947368421052632</v>
@@ -814,24 +798,21 @@
         <v>0.5</v>
       </c>
       <c r="F5">
-        <v>0.4736842105263158</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="G5">
-        <v>0.3421052631578947</v>
-      </c>
-      <c r="H5">
-        <v>0.4210526315789473</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
+        <v>0.5526315789473685</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>0.5135135135135135</v>
       </c>
       <c r="B6">
+        <v>0.6486486486486487</v>
+      </c>
+      <c r="C6">
         <v>0.5945945945945946</v>
-      </c>
-      <c r="C6">
-        <v>0.3783783783783784</v>
       </c>
       <c r="D6">
         <v>0.4324324324324325</v>
@@ -840,24 +821,21 @@
         <v>0.3243243243243243</v>
       </c>
       <c r="F6">
-        <v>0.4594594594594595</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="G6">
-        <v>0.3513513513513514</v>
-      </c>
-      <c r="H6">
-        <v>0.4324324324324325</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
+        <v>0.4054054054054054</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>0.7297297297297297</v>
       </c>
       <c r="B7">
+        <v>0.5675675675675675</v>
+      </c>
+      <c r="C7">
         <v>0.7297297297297297</v>
-      </c>
-      <c r="C7">
-        <v>0.2972972972972973</v>
       </c>
       <c r="D7">
         <v>0.7837837837837838</v>
@@ -866,24 +844,21 @@
         <v>0.6486486486486487</v>
       </c>
       <c r="F7">
-        <v>0.4864864864864865</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="G7">
-        <v>0.3513513513513514</v>
-      </c>
-      <c r="H7">
         <v>0.5405405405405406</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>0.7027027027027027</v>
       </c>
       <c r="B8">
+        <v>0.5945945945945946</v>
+      </c>
+      <c r="C8">
         <v>0.6756756756756757</v>
-      </c>
-      <c r="C8">
-        <v>0.3783783783783784</v>
       </c>
       <c r="D8">
         <v>0.7027027027027027</v>
@@ -892,24 +867,21 @@
         <v>0.5945945945945946</v>
       </c>
       <c r="F8">
-        <v>0.4864864864864865</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="G8">
-        <v>0.3513513513513514</v>
-      </c>
-      <c r="H8">
-        <v>0.5675675675675675</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
+        <v>0.5945945945945946</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>0.6388888888888888</v>
       </c>
       <c r="B9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="C9">
         <v>0.7222222222222222</v>
-      </c>
-      <c r="C9">
-        <v>0.4444444444444444</v>
       </c>
       <c r="D9">
         <v>0.6388888888888888</v>
@@ -918,24 +890,21 @@
         <v>0.5277777777777778</v>
       </c>
       <c r="F9">
-        <v>0.4444444444444444</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="G9">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="H9">
-        <v>0.6388888888888888</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
+        <v>0.6111111111111112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>0.6111111111111112</v>
       </c>
       <c r="B10">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="C10">
         <v>0.6944444444444444</v>
-      </c>
-      <c r="C10">
-        <v>0.5833333333333334</v>
       </c>
       <c r="D10">
         <v>0.5277777777777778</v>
@@ -944,24 +913,21 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="F10">
-        <v>0.4166666666666667</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="G10">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="H10">
-        <v>0.6388888888888888</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>0.7058823529411765</v>
       </c>
       <c r="B11">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="C11">
         <v>0.7941176470588235</v>
-      </c>
-      <c r="C11">
-        <v>0.5</v>
       </c>
       <c r="D11">
         <v>0.5588235294117647</v>
@@ -970,13 +936,33 @@
         <v>0.5588235294117647</v>
       </c>
       <c r="F11">
-        <v>0.4411764705882353</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="G11">
-        <v>0.3529411764705883</v>
-      </c>
-      <c r="H11">
         <v>0.5588235294117647</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>0.5914648811707635</v>
+      </c>
+      <c r="B12">
+        <v>0.5769941291613119</v>
+      </c>
+      <c r="C12">
+        <v>0.6067059617369215</v>
+      </c>
+      <c r="D12">
+        <v>0.5344139209464287</v>
+      </c>
+      <c r="E12">
+        <v>0.524829842941298</v>
+      </c>
+      <c r="F12">
+        <v>0.6228221970482032</v>
+      </c>
+      <c r="G12">
+        <v>0.5416278150024281</v>
       </c>
     </row>
   </sheetData>
@@ -986,44 +972,44 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>0.8157894736842105</v>
       </c>
       <c r="B2">
         <v>0.7631578947368421</v>
       </c>
       <c r="C2">
-        <v>0.7894736842105263</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="D2">
         <v>0.6842105263157895</v>
@@ -1032,21 +1018,18 @@
         <v>0.7105263157894737</v>
       </c>
       <c r="F2">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="G2">
+        <v>0.7368421052631579</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>0.7105263157894737</v>
+      </c>
+      <c r="B3">
         <v>0.6842105263157895</v>
-      </c>
-      <c r="G2">
-        <v>0.5526315789473685</v>
-      </c>
-      <c r="H2">
-        <v>0.7368421052631579</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.7368421052631579</v>
       </c>
       <c r="C3">
         <v>0.7368421052631579</v>
@@ -1058,24 +1041,21 @@
         <v>0.7105263157894737</v>
       </c>
       <c r="F3">
-        <v>0.7368421052631579</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="G3">
-        <v>0.5526315789473685</v>
-      </c>
-      <c r="H3">
-        <v>0.5789473684210527</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
+        <v>0.6052631578947368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>0.8157894736842105</v>
       </c>
       <c r="B4">
         <v>0.8157894736842105</v>
       </c>
       <c r="C4">
-        <v>0.7105263157894737</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="D4">
         <v>0.7631578947368421</v>
@@ -1084,24 +1064,21 @@
         <v>0.7631578947368421</v>
       </c>
       <c r="F4">
-        <v>0.7105263157894737</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="G4">
-        <v>0.5526315789473685</v>
-      </c>
-      <c r="H4">
         <v>0.7368421052631579</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>0.7837837837837838</v>
       </c>
       <c r="B5">
+        <v>0.7837837837837838</v>
+      </c>
+      <c r="C5">
         <v>0.7567567567567568</v>
-      </c>
-      <c r="C5">
-        <v>0.6756756756756757</v>
       </c>
       <c r="D5">
         <v>0.7567567567567568</v>
@@ -1110,24 +1087,21 @@
         <v>0.7027027027027027</v>
       </c>
       <c r="F5">
-        <v>0.5675675675675675</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="G5">
-        <v>0.5675675675675675</v>
-      </c>
-      <c r="H5">
-        <v>0.6756756756756757</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
+        <v>0.6486486486486487</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>0.8648648648648649</v>
       </c>
       <c r="B6">
+        <v>0.8108108108108109</v>
+      </c>
+      <c r="C6">
         <v>0.918918918918919</v>
-      </c>
-      <c r="C6">
-        <v>0.7837837837837838</v>
       </c>
       <c r="D6">
         <v>0.918918918918919</v>
@@ -1136,24 +1110,21 @@
         <v>0.7837837837837838</v>
       </c>
       <c r="F6">
-        <v>0.7837837837837838</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="G6">
-        <v>0.5675675675675675</v>
-      </c>
-      <c r="H6">
-        <v>0.8378378378378378</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
+        <v>0.8108108108108109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>0.7567567567567568</v>
       </c>
       <c r="B7">
         <v>0.7567567567567568</v>
       </c>
       <c r="C7">
-        <v>0.6216216216216216</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="D7">
         <v>0.918918918918919</v>
@@ -1165,21 +1136,18 @@
         <v>0.7567567567567568</v>
       </c>
       <c r="G7">
-        <v>0.5675675675675675</v>
-      </c>
-      <c r="H7">
-        <v>0.7297297297297297</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
+        <v>0.7027027027027027</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>0.8648648648648649</v>
       </c>
       <c r="B8">
+        <v>0.8918918918918919</v>
+      </c>
+      <c r="C8">
         <v>0.8648648648648649</v>
-      </c>
-      <c r="C8">
-        <v>0.7837837837837838</v>
       </c>
       <c r="D8">
         <v>0.8108108108108109</v>
@@ -1188,24 +1156,21 @@
         <v>0.7297297297297297</v>
       </c>
       <c r="F8">
-        <v>0.7567567567567568</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="G8">
-        <v>0.5675675675675675</v>
-      </c>
-      <c r="H8">
         <v>0.7297297297297297</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>0.9459459459459459</v>
       </c>
       <c r="B9">
+        <v>0.8918918918918919</v>
+      </c>
+      <c r="C9">
         <v>0.8648648648648649</v>
-      </c>
-      <c r="C9">
-        <v>0.8918918918918919</v>
       </c>
       <c r="D9">
         <v>0.9459459459459459</v>
@@ -1214,24 +1179,21 @@
         <v>0.918918918918919</v>
       </c>
       <c r="F9">
-        <v>0.7837837837837838</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="G9">
-        <v>0.5675675675675675</v>
-      </c>
-      <c r="H9">
-        <v>0.8918918918918919</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
+        <v>0.8378378378378378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>0.8888888888888888</v>
       </c>
       <c r="B10">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="C10">
         <v>0.8055555555555556</v>
-      </c>
-      <c r="C10">
-        <v>0.4722222222222222</v>
       </c>
       <c r="D10">
         <v>0.7222222222222222</v>
@@ -1240,24 +1202,21 @@
         <v>0.8055555555555556</v>
       </c>
       <c r="F10">
-        <v>0.7222222222222222</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="G10">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="H10">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
+        <v>0.9444444444444444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>0.8857142857142857</v>
       </c>
       <c r="B11">
+        <v>0.7428571428571429</v>
+      </c>
+      <c r="C11">
         <v>0.8</v>
-      </c>
-      <c r="C11">
-        <v>0.7428571428571429</v>
       </c>
       <c r="D11">
         <v>0.7428571428571429</v>
@@ -1266,13 +1225,33 @@
         <v>0.7714285714285715</v>
       </c>
       <c r="F11">
-        <v>0.6857142857142857</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G11">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="H11">
-        <v>0.8</v>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>0.8332924653977287</v>
+      </c>
+      <c r="B12">
+        <v>0.7918927950506898</v>
+      </c>
+      <c r="C12">
+        <v>0.8083507191401929</v>
+      </c>
+      <c r="D12">
+        <v>0.789537808485177</v>
+      </c>
+      <c r="E12">
+        <v>0.7680113572218835</v>
+      </c>
+      <c r="F12">
+        <v>0.782493960125539</v>
+      </c>
+      <c r="G12">
+        <v>0.7610264399738085</v>
       </c>
     </row>
   </sheetData>
